--- a/NTDS_Nijmegen.xlsx
+++ b/NTDS_Nijmegen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11400" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>Breiten</t>
   </si>
@@ -114,6 +114,21 @@
   </si>
   <si>
     <t>NIJ 11</t>
+  </si>
+  <si>
+    <t>EHBO</t>
+  </si>
+  <si>
+    <t>Wil jureren</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Slaapplek</t>
+  </si>
+  <si>
+    <t>Allergiën/dieet</t>
   </si>
 </sst>
 </file>
@@ -479,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="M1" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,9 +507,13 @@
     <col min="4" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="11" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -531,8 +550,23 @@
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -558,7 +592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -587,7 +621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -610,7 +644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -636,7 +670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -659,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -682,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -708,7 +742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -731,7 +765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -754,7 +788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -783,7 +817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>

--- a/NTDS_Nijmegen.xlsx
+++ b/NTDS_Nijmegen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16200" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="19800" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="281">
   <si>
     <t>Breiten</t>
   </si>
@@ -501,9 +501,6 @@
   </si>
   <si>
     <t>arjanmondria@hotmail.com</t>
-  </si>
-  <si>
-    <t>Ik dans geen latin / I don't dance latin</t>
   </si>
   <si>
     <t>Farid</t>
@@ -1235,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,17 +1351,13 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2">
-        <v>51</v>
-      </c>
-      <c r="I2" s="2">
-        <v>51</v>
-      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L2" s="2"/>
       <c r="O2" s="2" t="s">
@@ -1407,10 +1400,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>10</v>
@@ -1454,10 +1447,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>10</v>
@@ -1499,10 +1492,10 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L5" s="2"/>
       <c r="O5" s="2"/>
@@ -1545,10 +1538,10 @@
         <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L6" s="2"/>
       <c r="O6" s="2"/>
@@ -1589,10 +1582,10 @@
         <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L7" s="2"/>
       <c r="O7" s="2"/>
@@ -1635,10 +1628,10 @@
         <v>6</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L8" s="2"/>
       <c r="O8" s="2"/>
@@ -1679,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L9" s="2"/>
       <c r="O9" s="2"/>
@@ -1725,10 +1718,10 @@
         <v>71</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L10" s="2"/>
       <c r="O10" s="2"/>
@@ -1771,10 +1764,10 @@
         <v>8</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L11" s="2"/>
       <c r="O11" s="2"/>
@@ -1813,10 +1806,10 @@
         <v>21</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L12" s="2"/>
       <c r="O12" s="2"/>
@@ -1859,10 +1852,10 @@
         <v>24</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L13" s="2"/>
       <c r="O13" s="2"/>
@@ -1897,10 +1890,10 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1941,17 +1934,13 @@
       <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="2">
-        <v>15</v>
-      </c>
-      <c r="I15" s="2">
-        <v>15</v>
-      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L15" s="2"/>
       <c r="O15" s="2"/>
@@ -1987,17 +1976,13 @@
       <c r="G16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="2">
-        <v>14</v>
-      </c>
-      <c r="I16" s="2">
-        <v>14</v>
-      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L16" s="2"/>
       <c r="O16" s="2"/>
@@ -2042,10 +2027,10 @@
         <v>60</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L17" s="2"/>
       <c r="O17" s="2"/>
@@ -2088,10 +2073,10 @@
         <v>18</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L18" s="2"/>
       <c r="O18" s="2"/>
@@ -2156,7 +2141,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
@@ -2174,10 +2159,10 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L20" s="2"/>
       <c r="O20" s="2"/>
@@ -2220,10 +2205,10 @@
         <v>22</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L21" s="2"/>
       <c r="O21" s="2"/>
@@ -2264,10 +2249,10 @@
         <v>11</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L22" s="2"/>
       <c r="O22" s="2"/>
@@ -2310,10 +2295,10 @@
         <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L23" s="2"/>
       <c r="O23" s="2"/>
@@ -2354,10 +2339,10 @@
         <v>32</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L24" s="2"/>
       <c r="O24" s="2"/>
@@ -2398,10 +2383,10 @@
         <v>12</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L25" s="2"/>
       <c r="O25" s="2"/>
@@ -2442,10 +2427,10 @@
         <v>42</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L26" s="2"/>
       <c r="O26" s="2"/>
@@ -2482,10 +2467,10 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>10</v>
@@ -2531,10 +2516,10 @@
         <v>28</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L28" s="2"/>
       <c r="O28" s="2"/>
@@ -2577,10 +2562,10 @@
         <v>27</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L29" s="2"/>
       <c r="O29" s="2"/>
@@ -2619,10 +2604,10 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>10</v>
@@ -2670,10 +2655,10 @@
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L31" s="2"/>
       <c r="O31" s="2"/>
@@ -2710,10 +2695,10 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L32" s="2"/>
       <c r="O32" s="2"/>
@@ -2754,10 +2739,10 @@
         <v>23</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L33" s="2"/>
       <c r="O33" s="2" t="s">
@@ -2800,10 +2785,10 @@
         <v>62</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L34" s="2"/>
       <c r="O34" s="2"/>
@@ -2844,10 +2829,10 @@
         <v>35</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L35" s="2"/>
       <c r="O35" s="2" t="s">
@@ -2890,10 +2875,10 @@
         <v>34</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L36" s="2"/>
       <c r="O36" s="2" t="s">
@@ -2938,10 +2923,10 @@
         <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L37" s="2"/>
       <c r="O37" s="2"/>
@@ -2982,10 +2967,10 @@
         <v>44</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L38" s="2"/>
       <c r="O38" s="2"/>
@@ -3028,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L39" s="2"/>
       <c r="O39" s="2"/>
@@ -3056,7 +3041,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>152</v>
@@ -3074,10 +3059,10 @@
         <v>36</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L40" s="2"/>
       <c r="O40" s="2"/>
@@ -3114,10 +3099,10 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L41" s="2"/>
       <c r="O41" s="2"/>
@@ -3150,10 +3135,10 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L42" s="2"/>
       <c r="N42" t="s">
@@ -3164,7 +3149,7 @@
         <v>10</v>
       </c>
       <c r="R42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -3176,14 +3161,14 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>12</v>
@@ -3198,10 +3183,10 @@
         <v>25</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L43" s="2"/>
       <c r="O43" s="2"/>
@@ -3213,7 +3198,7 @@
         <v>10</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V43" s="2" t="s">
         <v>10</v>
@@ -3230,10 +3215,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>12</v>
@@ -3248,10 +3233,10 @@
         <v>46</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L44" s="2"/>
       <c r="O44" s="2"/>
@@ -3272,14 +3257,14 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>0</v>
@@ -3294,10 +3279,10 @@
         <v>37</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L45" s="2"/>
       <c r="O45" s="2" t="s">
@@ -3311,7 +3296,7 @@
         <v>10</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>29</v>
@@ -3322,14 +3307,14 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>12</v>
@@ -3344,10 +3329,10 @@
         <v>52</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L46" s="2"/>
       <c r="O46" s="2"/>
@@ -3368,14 +3353,14 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>12</v>
@@ -3390,10 +3375,10 @@
         <v>43</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L47" s="2"/>
       <c r="O47" s="2"/>
@@ -3412,14 +3397,14 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>0</v>
@@ -3430,10 +3415,10 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>10</v>
@@ -3461,14 +3446,14 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>12</v>
@@ -3483,10 +3468,10 @@
         <v>50</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L49" s="2"/>
       <c r="O49" s="2"/>
@@ -3505,14 +3490,14 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>1</v>
@@ -3523,10 +3508,10 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>10</v>
@@ -3557,19 +3542,19 @@
         <v>121</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="H51" s="2">
         <v>48</v>
@@ -3578,10 +3563,10 @@
         <v>48</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L51" s="2"/>
       <c r="O51" s="2"/>
@@ -3602,32 +3587,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2">
-        <v>1</v>
-      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
       <c r="J52" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L52" s="2"/>
       <c r="O52" s="2"/>
@@ -3646,14 +3627,14 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>12</v>
@@ -3694,14 +3675,14 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>12</v>
@@ -3716,10 +3697,10 @@
         <v>74</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L54" s="2"/>
       <c r="O54" s="2"/>
@@ -3738,16 +3719,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>0</v>
@@ -3762,10 +3743,10 @@
         <v>61</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L55" s="2"/>
       <c r="O55" s="2"/>
@@ -3784,16 +3765,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>0</v>
@@ -3804,10 +3785,10 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L56" s="2"/>
       <c r="O56" s="2"/>
@@ -3819,7 +3800,7 @@
         <v>10</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V56" s="2"/>
     </row>
@@ -3828,14 +3809,14 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>12</v>
@@ -3850,10 +3831,10 @@
         <v>76</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L57" s="2"/>
       <c r="O57" s="2"/>
@@ -3874,14 +3855,14 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>0</v>
@@ -3896,10 +3877,10 @@
         <v>65</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L58" s="2"/>
       <c r="O58" s="2"/>
@@ -3918,16 +3899,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>0</v>
@@ -3938,10 +3919,10 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L59" s="2"/>
       <c r="O59" s="2"/>
@@ -3960,14 +3941,14 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>0</v>
@@ -3982,10 +3963,10 @@
         <v>80</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L60" s="2"/>
       <c r="O60" s="2"/>
@@ -4002,14 +3983,14 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>0</v>
@@ -4024,10 +4005,10 @@
         <v>16</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L61" s="2"/>
       <c r="O61" s="2" t="s">
@@ -4050,14 +4031,14 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>0</v>
@@ -4072,10 +4053,10 @@
         <v>54</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L62" s="2"/>
       <c r="O62" s="2"/>
@@ -4094,16 +4075,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>0</v>
@@ -4118,10 +4099,10 @@
         <v>33</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L63" s="2"/>
       <c r="O63" s="2"/>
@@ -4140,16 +4121,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>0</v>
@@ -4160,10 +4141,10 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L64" s="2"/>
       <c r="O64" s="2" t="s">
@@ -4190,10 +4171,10 @@
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>0</v>
@@ -4204,10 +4185,10 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L65" s="2"/>
       <c r="O65" s="2"/>
@@ -4224,14 +4205,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>0</v>
@@ -4246,10 +4227,10 @@
         <v>57</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L66" s="2"/>
       <c r="O66" s="2"/>
@@ -4261,7 +4242,7 @@
         <v>10</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V66" s="2"/>
     </row>
@@ -4270,14 +4251,14 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>12</v>
@@ -4316,16 +4297,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>12</v>
@@ -4340,10 +4321,10 @@
         <v>66</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L68" s="2"/>
       <c r="O68" s="2"/>
@@ -4364,14 +4345,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>0</v>
@@ -4382,10 +4363,10 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L69" s="2"/>
       <c r="O69" s="2" t="s">
@@ -4408,16 +4389,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>12</v>
@@ -4432,10 +4413,10 @@
         <v>72</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L70" s="2"/>
       <c r="O70" s="2"/>
@@ -4454,14 +4435,14 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>0</v>
@@ -4472,10 +4453,10 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L71" s="2"/>
       <c r="O71" s="2"/>
@@ -4494,14 +4475,14 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>0</v>
@@ -4516,10 +4497,10 @@
         <v>9</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L72" s="2"/>
       <c r="O72" s="2"/>
@@ -4540,14 +4521,14 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>12</v>
@@ -4562,10 +4543,10 @@
         <v>69</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L73" s="2"/>
       <c r="O73" s="2" t="s">
@@ -4590,14 +4571,14 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>0</v>
@@ -4608,10 +4589,10 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>10</v>
@@ -4635,14 +4616,14 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>12</v>
@@ -4657,10 +4638,10 @@
         <v>53</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L75" s="2"/>
       <c r="O75" s="2"/>
@@ -4683,10 +4664,10 @@
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>0</v>
@@ -4699,10 +4680,10 @@
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" t="s">
@@ -4724,14 +4705,14 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>12</v>
@@ -4746,10 +4727,10 @@
         <v>56</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L77" s="2"/>
       <c r="O77" s="2"/>
@@ -4774,10 +4755,10 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>1</v>
@@ -4788,10 +4769,10 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>10</v>
@@ -4824,14 +4805,14 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>0</v>
@@ -4842,10 +4823,10 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L79" s="2"/>
       <c r="O79" s="2"/>
@@ -4864,14 +4845,14 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>0</v>
@@ -4882,10 +4863,10 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L80" s="2"/>
       <c r="O80" s="2"/>
@@ -4906,14 +4887,14 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>0</v>
@@ -4928,10 +4909,10 @@
         <v>59</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L81" s="2"/>
       <c r="O81" s="2"/>
@@ -4948,16 +4929,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>0</v>
@@ -4968,10 +4949,10 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L82" s="2"/>
       <c r="O82" s="2"/>

--- a/NTDS_Nijmegen.xlsx
+++ b/NTDS_Nijmegen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="19800" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="20400" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="281">
   <si>
-    <t>Breiten</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Nummer</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>Team-captain</t>
   </si>
   <si>
-    <t>Beginner</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -867,6 +858,15 @@
   </si>
   <si>
     <t>Lead</t>
+  </si>
+  <si>
+    <t>Breitensport</t>
+  </si>
+  <si>
+    <t>Beginners</t>
+  </si>
+  <si>
+    <t>Open Class</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1242,8 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
@@ -1262,73 +1263,73 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1336,43 +1337,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="S2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1380,45 +1381,45 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V3" s="2"/>
     </row>
@@ -1427,46 +1428,46 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1474,41 +1475,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L5" s="2"/>
       <c r="O5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="S5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1516,20 +1517,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H6" s="2">
         <v>38</v>
@@ -1538,21 +1539,21 @@
         <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L6" s="2"/>
       <c r="O6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1560,20 +1561,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H7" s="3">
         <v>7</v>
@@ -1582,20 +1583,20 @@
         <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L7" s="2"/>
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="S7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V7" s="2"/>
     </row>
@@ -1604,22 +1605,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H8" s="2">
         <v>6</v>
@@ -1628,19 +1629,19 @@
         <v>6</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L8" s="2"/>
       <c r="O8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="S8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1650,20 +1651,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H9" s="2">
         <v>10</v>
@@ -1672,23 +1673,23 @@
         <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L9" s="2"/>
       <c r="O9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1696,20 +1697,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H10" s="2">
         <v>71</v>
@@ -1718,19 +1719,19 @@
         <v>71</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L10" s="2"/>
       <c r="O10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="S10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1740,22 +1741,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H11" s="2">
         <v>8</v>
@@ -1764,17 +1765,17 @@
         <v>8</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L11" s="2"/>
       <c r="O11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -1784,20 +1785,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H12" s="2">
         <v>21</v>
@@ -1806,23 +1807,23 @@
         <v>21</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L12" s="2"/>
       <c r="O12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="S12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1830,20 +1831,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H13" s="2">
         <v>24</v>
@@ -1852,17 +1853,17 @@
         <v>24</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L13" s="2"/>
       <c r="O13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -1872,46 +1873,46 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="S14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1919,37 +1920,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L15" s="2"/>
       <c r="O15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="S15" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -1959,45 +1960,45 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L16" s="2"/>
       <c r="O16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="S16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -2005,20 +2006,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H17" s="2">
         <v>60</v>
@@ -2027,23 +2028,23 @@
         <v>60</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L17" s="2"/>
       <c r="O17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="S17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -2051,20 +2052,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H18" s="2">
         <v>18</v>
@@ -2073,19 +2074,19 @@
         <v>18</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L18" s="2"/>
       <c r="O18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="S18" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -2095,20 +2096,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H19" s="2">
         <v>17</v>
@@ -2117,23 +2118,23 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L19" s="2"/>
       <c r="O19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="S19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -2141,37 +2142,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L20" s="2"/>
       <c r="O20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="S20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -2181,22 +2182,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H21" s="2">
         <v>22</v>
@@ -2205,19 +2206,19 @@
         <v>22</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L21" s="2"/>
       <c r="O21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -2227,20 +2228,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H22" s="2">
         <v>11</v>
@@ -2249,19 +2250,19 @@
         <v>11</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L22" s="2"/>
       <c r="O22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="S22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -2271,22 +2272,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H23" s="2">
         <v>20</v>
@@ -2295,19 +2296,19 @@
         <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L23" s="2"/>
       <c r="O23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="S23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -2317,20 +2318,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H24" s="2">
         <v>32</v>
@@ -2339,21 +2340,21 @@
         <v>32</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L24" s="2"/>
       <c r="O24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2361,20 +2362,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H25" s="2">
         <v>12</v>
@@ -2383,19 +2384,19 @@
         <v>12</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L25" s="2"/>
       <c r="O25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="S25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -2405,20 +2406,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H26" s="2">
         <v>42</v>
@@ -2427,20 +2428,20 @@
         <v>42</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L26" s="2"/>
       <c r="O26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="S26" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V26" s="2"/>
     </row>
@@ -2449,42 +2450,42 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="S27" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -2494,20 +2495,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H28" s="2">
         <v>28</v>
@@ -2516,23 +2517,23 @@
         <v>28</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L28" s="2"/>
       <c r="O28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="S28" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -2540,20 +2541,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H29" s="2">
         <v>27</v>
@@ -2562,22 +2563,22 @@
         <v>27</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L29" s="2"/>
       <c r="O29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="S29" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V29" s="2"/>
     </row>
@@ -2586,46 +2587,46 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="S30" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -2633,41 +2634,41 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H31" s="2">
         <v>75</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L31" s="2"/>
       <c r="O31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="S31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -2677,37 +2678,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L32" s="2"/>
       <c r="O32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="S32" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -2717,20 +2718,20 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H33" s="2">
         <v>23</v>
@@ -2739,23 +2740,23 @@
         <v>23</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -2763,20 +2764,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H34" s="2">
         <v>62</v>
@@ -2785,20 +2786,20 @@
         <v>62</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L34" s="2"/>
       <c r="O34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="S34" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V34" s="2"/>
     </row>
@@ -2807,20 +2808,20 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H35" s="2">
         <v>35</v>
@@ -2829,21 +2830,21 @@
         <v>35</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L35" s="2"/>
       <c r="O35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="S35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -2853,20 +2854,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H36" s="2">
         <v>34</v>
@@ -2875,21 +2876,21 @@
         <v>34</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L36" s="2"/>
       <c r="O36" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="S36" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -2899,22 +2900,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H37" s="2">
         <v>39</v>
@@ -2923,19 +2924,19 @@
         <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L37" s="2"/>
       <c r="O37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="S37" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -2945,20 +2946,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H38" s="2">
         <v>44</v>
@@ -2967,19 +2968,19 @@
         <v>44</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L38" s="2"/>
       <c r="O38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="S38" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
@@ -2989,22 +2990,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H39" s="2">
         <v>5</v>
@@ -3013,22 +3014,22 @@
         <v>5</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L39" s="2"/>
       <c r="O39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="S39" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V39" s="2"/>
     </row>
@@ -3037,20 +3038,20 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H40" s="2">
         <v>36</v>
@@ -3059,19 +3060,19 @@
         <v>36</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L40" s="2"/>
       <c r="O40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="S40" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -3081,39 +3082,39 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L41" s="2"/>
       <c r="O41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -3121,35 +3122,35 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L42" s="2"/>
       <c r="N42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O42" s="2"/>
       <c r="Q42" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R42" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -3161,20 +3162,20 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H43" s="2">
         <v>25</v>
@@ -3183,25 +3184,25 @@
         <v>25</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L43" s="2"/>
       <c r="O43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="S43" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -3209,22 +3210,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H44" s="2">
         <v>46</v>
@@ -3233,23 +3234,23 @@
         <v>46</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L44" s="2"/>
       <c r="O44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="S44" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -3257,20 +3258,20 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H45" s="2">
         <v>37</v>
@@ -3279,27 +3280,27 @@
         <v>37</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="S45" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -3307,20 +3308,20 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H46" s="2">
         <v>52</v>
@@ -3329,22 +3330,22 @@
         <v>52</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L46" s="2"/>
       <c r="O46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="S46" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V46" s="2"/>
     </row>
@@ -3353,20 +3354,20 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H47" s="2">
         <v>43</v>
@@ -3375,19 +3376,19 @@
         <v>43</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L47" s="2"/>
       <c r="O47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="S47" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -3397,48 +3398,48 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="S48" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -3446,20 +3447,20 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H49" s="2">
         <v>50</v>
@@ -3468,19 +3469,19 @@
         <v>50</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L49" s="2"/>
       <c r="O49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="S49" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -3490,48 +3491,48 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -3539,22 +3540,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H51" s="2">
         <v>48</v>
@@ -3563,22 +3564,22 @@
         <v>48</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L51" s="2"/>
       <c r="O51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="S51" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V51" s="2"/>
     </row>
@@ -3587,37 +3588,37 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L52" s="2"/>
       <c r="O52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="S52" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
@@ -3627,20 +3628,20 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H53" s="2">
         <v>45</v>
@@ -3649,25 +3650,25 @@
         <v>45</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L53" s="2"/>
       <c r="O53" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="S53" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -3675,20 +3676,20 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H54" s="2">
         <v>74</v>
@@ -3697,20 +3698,20 @@
         <v>74</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L54" s="2"/>
       <c r="O54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V54" s="2"/>
     </row>
@@ -3719,22 +3720,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H55" s="2">
         <v>61</v>
@@ -3743,19 +3744,19 @@
         <v>61</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L55" s="2"/>
       <c r="O55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="S55" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -3765,42 +3766,42 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L56" s="2"/>
       <c r="O56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="S56" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="V56" s="2"/>
     </row>
@@ -3809,20 +3810,20 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H57" s="2">
         <v>76</v>
@@ -3831,23 +3832,23 @@
         <v>76</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L57" s="2"/>
       <c r="O57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="S57" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U57" s="2"/>
       <c r="V57" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -3855,20 +3856,20 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H58" s="2">
         <v>65</v>
@@ -3877,19 +3878,19 @@
         <v>65</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L58" s="2"/>
       <c r="O58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="S58" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
@@ -3899,39 +3900,39 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L59" s="2"/>
       <c r="O59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="S59" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -3941,20 +3942,20 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H60" s="2">
         <v>80</v>
@@ -3963,17 +3964,17 @@
         <v>80</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L60" s="2"/>
       <c r="O60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -3983,20 +3984,20 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H61" s="2">
         <v>16</v>
@@ -4005,25 +4006,25 @@
         <v>16</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L61" s="2"/>
       <c r="O61" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="S61" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U61" s="2"/>
       <c r="V61" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -4031,20 +4032,20 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H62" s="2">
         <v>54</v>
@@ -4053,19 +4054,19 @@
         <v>54</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L62" s="2"/>
       <c r="O62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="S62" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
@@ -4075,22 +4076,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H63" s="2">
         <v>33</v>
@@ -4099,19 +4100,19 @@
         <v>33</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L63" s="2"/>
       <c r="O63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="S63" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
@@ -4121,45 +4122,45 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L64" s="2"/>
       <c r="O64" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="S64" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U64" s="2"/>
       <c r="V64" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -4167,28 +4168,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L65" s="2"/>
       <c r="O65" s="2"/>
@@ -4196,7 +4197,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V65" s="2"/>
     </row>
@@ -4205,20 +4206,20 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H66" s="2">
         <v>57</v>
@@ -4227,22 +4228,22 @@
         <v>57</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L66" s="2"/>
       <c r="O66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="S66" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V66" s="2"/>
     </row>
@@ -4251,20 +4252,20 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H67" s="2">
         <v>67</v>
@@ -4273,23 +4274,23 @@
         <v>67</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L67" s="2"/>
       <c r="O67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="S67" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U67" s="2"/>
       <c r="V67" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -4297,22 +4298,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H68" s="2">
         <v>66</v>
@@ -4321,23 +4322,23 @@
         <v>66</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L68" s="2"/>
       <c r="O68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="S68" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U68" s="2"/>
       <c r="V68" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -4345,43 +4346,43 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="S69" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U69" s="2"/>
       <c r="V69" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -4389,22 +4390,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H70" s="2">
         <v>72</v>
@@ -4413,19 +4414,19 @@
         <v>72</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L70" s="2"/>
       <c r="O70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="S70" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
@@ -4435,37 +4436,37 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L71" s="2"/>
       <c r="O71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="S71" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
@@ -4475,20 +4476,20 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H72" s="3">
         <v>9</v>
@@ -4497,23 +4498,23 @@
         <v>9</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L72" s="2"/>
       <c r="O72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="S72" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U72" s="2"/>
       <c r="V72" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -4521,20 +4522,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H73" s="2">
         <v>69</v>
@@ -4543,27 +4544,27 @@
         <v>69</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="S73" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -4571,42 +4572,42 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
@@ -4616,20 +4617,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H75" s="2">
         <v>53</v>
@@ -4638,19 +4639,19 @@
         <v>53</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L75" s="2"/>
       <c r="O75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="S75" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
@@ -4660,42 +4661,42 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H76" s="2">
         <v>30</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="S76" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
@@ -4705,20 +4706,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="H77" s="2">
         <v>56</v>
@@ -4727,22 +4728,22 @@
         <v>56</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L77" s="2"/>
       <c r="O77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="S77" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V77" s="2"/>
     </row>
@@ -4751,53 +4752,53 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O78" s="2"/>
       <c r="Q78" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -4805,38 +4806,38 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L79" s="2"/>
       <c r="O79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="S79" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T79" s="2"/>
       <c r="U79" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V79" s="2"/>
     </row>
@@ -4845,41 +4846,41 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L80" s="2"/>
       <c r="O80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="S80" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U80" s="2"/>
       <c r="V80" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -4887,20 +4888,20 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H81" s="2">
         <v>59</v>
@@ -4909,17 +4910,17 @@
         <v>59</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L81" s="2"/>
       <c r="O81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
@@ -4929,37 +4930,37 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L82" s="2"/>
       <c r="O82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>

--- a/NTDS_Nijmegen.xlsx
+++ b/NTDS_Nijmegen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21000" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="22200" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="281">
   <si>
     <t>E-mail</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Team-captain</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -860,16 +857,16 @@
     <t>Jury Latin</t>
   </si>
   <si>
-    <t>Allergiën / dieet</t>
-  </si>
-  <si>
     <t>Wil je vrijwilliger zijn voor dit NTDS?</t>
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
   </si>
   <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
+    <t>Teamcaptain</t>
+  </si>
+  <si>
+    <t>Allergiën / Dieet</t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,16 +1263,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1287,16 +1284,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -1305,66 +1302,64 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L2" s="2"/>
       <c r="O2" s="2" t="s">
@@ -1379,7 +1374,7 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1387,30 +1382,30 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>5</v>
@@ -1425,7 +1420,7 @@
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V3" s="2"/>
     </row>
@@ -1434,30 +1429,30 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>5</v>
@@ -1481,28 +1476,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L5" s="2"/>
       <c r="O5" s="2"/>
@@ -1515,7 +1510,7 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1523,20 +1518,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H6" s="2">
         <v>38</v>
@@ -1545,10 +1540,10 @@
         <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L6" s="2"/>
       <c r="O6" s="2"/>
@@ -1559,7 +1554,7 @@
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1567,20 +1562,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H7" s="3">
         <v>7</v>
@@ -1589,10 +1584,10 @@
         <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L7" s="2"/>
       <c r="O7" s="2"/>
@@ -1602,7 +1597,7 @@
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V7" s="2"/>
     </row>
@@ -1611,22 +1606,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H8" s="2">
         <v>6</v>
@@ -1635,10 +1630,10 @@
         <v>6</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L8" s="2"/>
       <c r="O8" s="2"/>
@@ -1657,20 +1652,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H9" s="2">
         <v>10</v>
@@ -1679,10 +1674,10 @@
         <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L9" s="2"/>
       <c r="O9" s="2"/>
@@ -1695,7 +1690,7 @@
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1703,20 +1698,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H10" s="2">
         <v>71</v>
@@ -1725,10 +1720,10 @@
         <v>71</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L10" s="2"/>
       <c r="O10" s="2"/>
@@ -1747,22 +1742,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H11" s="2">
         <v>8</v>
@@ -1771,10 +1766,10 @@
         <v>8</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L11" s="2"/>
       <c r="O11" s="2"/>
@@ -1791,20 +1786,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H12" s="2">
         <v>21</v>
@@ -1813,10 +1808,10 @@
         <v>21</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L12" s="2"/>
       <c r="O12" s="2"/>
@@ -1829,7 +1824,7 @@
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1837,20 +1832,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H13" s="2">
         <v>24</v>
@@ -1859,10 +1854,10 @@
         <v>24</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L13" s="2"/>
       <c r="O13" s="2"/>
@@ -1879,28 +1874,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -1918,7 +1913,7 @@
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1926,28 +1921,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L15" s="2"/>
       <c r="O15" s="2"/>
@@ -1966,30 +1961,30 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L16" s="2"/>
       <c r="O16" s="2"/>
@@ -2001,10 +1996,10 @@
         <v>5</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -2012,20 +2007,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H17" s="2">
         <v>60</v>
@@ -2034,10 +2029,10 @@
         <v>60</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L17" s="2"/>
       <c r="O17" s="2"/>
@@ -2050,7 +2045,7 @@
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -2058,20 +2053,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H18" s="2">
         <v>18</v>
@@ -2080,10 +2075,10 @@
         <v>18</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L18" s="2"/>
       <c r="O18" s="2"/>
@@ -2102,20 +2097,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H19" s="2">
         <v>17</v>
@@ -2124,10 +2119,10 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L19" s="2"/>
       <c r="O19" s="2"/>
@@ -2140,7 +2135,7 @@
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -2148,28 +2143,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L20" s="2"/>
       <c r="O20" s="2"/>
@@ -2188,22 +2183,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H21" s="2">
         <v>22</v>
@@ -2212,10 +2207,10 @@
         <v>22</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L21" s="2"/>
       <c r="O21" s="2"/>
@@ -2234,20 +2229,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H22" s="2">
         <v>11</v>
@@ -2256,10 +2251,10 @@
         <v>11</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L22" s="2"/>
       <c r="O22" s="2"/>
@@ -2278,22 +2273,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H23" s="2">
         <v>20</v>
@@ -2302,10 +2297,10 @@
         <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L23" s="2"/>
       <c r="O23" s="2"/>
@@ -2324,20 +2319,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H24" s="2">
         <v>32</v>
@@ -2346,10 +2341,10 @@
         <v>32</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L24" s="2"/>
       <c r="O24" s="2"/>
@@ -2360,7 +2355,7 @@
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2368,20 +2363,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H25" s="2">
         <v>12</v>
@@ -2390,10 +2385,10 @@
         <v>12</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L25" s="2"/>
       <c r="O25" s="2"/>
@@ -2412,20 +2407,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H26" s="2">
         <v>42</v>
@@ -2434,10 +2429,10 @@
         <v>42</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L26" s="2"/>
       <c r="O26" s="2"/>
@@ -2447,7 +2442,7 @@
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V26" s="2"/>
     </row>
@@ -2456,28 +2451,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>5</v>
@@ -2501,20 +2496,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H28" s="2">
         <v>28</v>
@@ -2523,10 +2518,10 @@
         <v>28</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L28" s="2"/>
       <c r="O28" s="2"/>
@@ -2539,7 +2534,7 @@
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -2547,20 +2542,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H29" s="2">
         <v>27</v>
@@ -2569,10 +2564,10 @@
         <v>27</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L29" s="2"/>
       <c r="O29" s="2"/>
@@ -2584,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V29" s="2"/>
     </row>
@@ -2593,28 +2588,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>5</v>
@@ -2640,32 +2635,32 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H31" s="2">
         <v>75</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L31" s="2"/>
       <c r="O31" s="2"/>
@@ -2684,28 +2679,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L32" s="2"/>
       <c r="O32" s="2"/>
@@ -2724,20 +2719,20 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H33" s="2">
         <v>23</v>
@@ -2746,14 +2741,14 @@
         <v>23</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="S33" s="2"/>
@@ -2762,7 +2757,7 @@
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -2770,20 +2765,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H34" s="2">
         <v>62</v>
@@ -2792,10 +2787,10 @@
         <v>62</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L34" s="2"/>
       <c r="O34" s="2"/>
@@ -2805,7 +2800,7 @@
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V34" s="2"/>
     </row>
@@ -2814,20 +2809,20 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H35" s="2">
         <v>35</v>
@@ -2836,10 +2831,10 @@
         <v>35</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L35" s="2"/>
       <c r="O35" s="2" t="s">
@@ -2860,20 +2855,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H36" s="2">
         <v>34</v>
@@ -2882,10 +2877,10 @@
         <v>34</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L36" s="2"/>
       <c r="O36" s="2" t="s">
@@ -2906,22 +2901,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H37" s="2">
         <v>39</v>
@@ -2930,10 +2925,10 @@
         <v>39</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L37" s="2"/>
       <c r="O37" s="2"/>
@@ -2952,20 +2947,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H38" s="2">
         <v>44</v>
@@ -2974,10 +2969,10 @@
         <v>44</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L38" s="2"/>
       <c r="O38" s="2"/>
@@ -2996,22 +2991,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H39" s="2">
         <v>5</v>
@@ -3020,10 +3015,10 @@
         <v>5</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L39" s="2"/>
       <c r="O39" s="2"/>
@@ -3035,7 +3030,7 @@
         <v>5</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V39" s="2"/>
     </row>
@@ -3044,20 +3039,20 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H40" s="2">
         <v>36</v>
@@ -3066,10 +3061,10 @@
         <v>36</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L40" s="2"/>
       <c r="O40" s="2"/>
@@ -3088,28 +3083,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L41" s="2"/>
       <c r="O41" s="2"/>
@@ -3120,7 +3115,7 @@
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -3128,24 +3123,24 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L42" s="2"/>
       <c r="N42" t="s">
@@ -3156,7 +3151,7 @@
         <v>5</v>
       </c>
       <c r="R42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -3168,20 +3163,20 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H43" s="2">
         <v>25</v>
@@ -3190,10 +3185,10 @@
         <v>25</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L43" s="2"/>
       <c r="O43" s="2"/>
@@ -3205,7 +3200,7 @@
         <v>5</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V43" s="2" t="s">
         <v>5</v>
@@ -3216,22 +3211,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H44" s="2">
         <v>46</v>
@@ -3240,10 +3235,10 @@
         <v>46</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L44" s="2"/>
       <c r="O44" s="2"/>
@@ -3256,7 +3251,7 @@
       </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -3264,20 +3259,20 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H45" s="2">
         <v>37</v>
@@ -3286,14 +3281,14 @@
         <v>37</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="S45" s="2" t="s">
@@ -3303,10 +3298,10 @@
         <v>5</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -3314,20 +3309,20 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H46" s="2">
         <v>52</v>
@@ -3336,10 +3331,10 @@
         <v>52</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L46" s="2"/>
       <c r="O46" s="2"/>
@@ -3351,7 +3346,7 @@
         <v>5</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V46" s="2"/>
     </row>
@@ -3360,20 +3355,20 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H47" s="2">
         <v>43</v>
@@ -3382,10 +3377,10 @@
         <v>43</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L47" s="2"/>
       <c r="O47" s="2"/>
@@ -3404,28 +3399,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
@@ -3434,7 +3429,7 @@
         <v>5</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="S48" s="2" t="s">
@@ -3453,20 +3448,20 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H49" s="2">
         <v>50</v>
@@ -3475,10 +3470,10 @@
         <v>50</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L49" s="2"/>
       <c r="O49" s="2"/>
@@ -3497,28 +3492,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>5</v>
@@ -3527,7 +3522,7 @@
         <v>5</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>5</v>
@@ -3538,7 +3533,7 @@
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -3546,22 +3541,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H51" s="2">
         <v>48</v>
@@ -3570,10 +3565,10 @@
         <v>48</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L51" s="2"/>
       <c r="O51" s="2"/>
@@ -3585,7 +3580,7 @@
         <v>5</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V51" s="2"/>
     </row>
@@ -3594,28 +3589,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L52" s="2"/>
       <c r="O52" s="2"/>
@@ -3634,20 +3629,20 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H53" s="2">
         <v>45</v>
@@ -3656,10 +3651,10 @@
         <v>45</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L53" s="2"/>
       <c r="O53" s="2" t="s">
@@ -3674,7 +3669,7 @@
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -3682,20 +3677,20 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H54" s="2">
         <v>74</v>
@@ -3704,10 +3699,10 @@
         <v>74</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L54" s="2"/>
       <c r="O54" s="2"/>
@@ -3717,7 +3712,7 @@
         <v>5</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V54" s="2"/>
     </row>
@@ -3726,22 +3721,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H55" s="2">
         <v>61</v>
@@ -3750,10 +3745,10 @@
         <v>61</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L55" s="2"/>
       <c r="O55" s="2"/>
@@ -3772,30 +3767,30 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L56" s="2"/>
       <c r="O56" s="2"/>
@@ -3807,7 +3802,7 @@
         <v>5</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V56" s="2"/>
     </row>
@@ -3816,20 +3811,20 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H57" s="2">
         <v>76</v>
@@ -3838,10 +3833,10 @@
         <v>76</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L57" s="2"/>
       <c r="O57" s="2"/>
@@ -3854,7 +3849,7 @@
       </c>
       <c r="U57" s="2"/>
       <c r="V57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -3862,20 +3857,20 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H58" s="2">
         <v>65</v>
@@ -3884,10 +3879,10 @@
         <v>65</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L58" s="2"/>
       <c r="O58" s="2"/>
@@ -3906,30 +3901,30 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L59" s="2"/>
       <c r="O59" s="2"/>
@@ -3948,20 +3943,20 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H60" s="2">
         <v>80</v>
@@ -3970,10 +3965,10 @@
         <v>80</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L60" s="2"/>
       <c r="O60" s="2"/>
@@ -3990,20 +3985,20 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H61" s="2">
         <v>16</v>
@@ -4012,10 +4007,10 @@
         <v>16</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L61" s="2"/>
       <c r="O61" s="2" t="s">
@@ -4030,7 +4025,7 @@
       </c>
       <c r="U61" s="2"/>
       <c r="V61" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -4038,20 +4033,20 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H62" s="2">
         <v>54</v>
@@ -4060,10 +4055,10 @@
         <v>54</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L62" s="2"/>
       <c r="O62" s="2"/>
@@ -4082,22 +4077,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H63" s="2">
         <v>33</v>
@@ -4106,10 +4101,10 @@
         <v>33</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L63" s="2"/>
       <c r="O63" s="2"/>
@@ -4128,30 +4123,30 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L64" s="2"/>
       <c r="O64" s="2" t="s">
@@ -4174,28 +4169,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L65" s="2"/>
       <c r="O65" s="2"/>
@@ -4203,7 +4198,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V65" s="2"/>
     </row>
@@ -4212,20 +4207,20 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H66" s="2">
         <v>57</v>
@@ -4234,10 +4229,10 @@
         <v>57</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L66" s="2"/>
       <c r="O66" s="2"/>
@@ -4249,7 +4244,7 @@
         <v>5</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V66" s="2"/>
     </row>
@@ -4258,20 +4253,20 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H67" s="2">
         <v>67</v>
@@ -4280,10 +4275,10 @@
         <v>67</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L67" s="2"/>
       <c r="O67" s="2"/>
@@ -4296,7 +4291,7 @@
       </c>
       <c r="U67" s="2"/>
       <c r="V67" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -4304,22 +4299,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H68" s="2">
         <v>66</v>
@@ -4328,10 +4323,10 @@
         <v>66</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L68" s="2"/>
       <c r="O68" s="2"/>
@@ -4344,7 +4339,7 @@
       </c>
       <c r="U68" s="2"/>
       <c r="V68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -4352,32 +4347,32 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="S69" s="2" t="s">
@@ -4388,7 +4383,7 @@
       </c>
       <c r="U69" s="2"/>
       <c r="V69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -4396,22 +4391,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H70" s="2">
         <v>72</v>
@@ -4420,10 +4415,10 @@
         <v>72</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L70" s="2"/>
       <c r="O70" s="2"/>
@@ -4442,28 +4437,28 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L71" s="2"/>
       <c r="O71" s="2"/>
@@ -4482,20 +4477,20 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H72" s="3">
         <v>9</v>
@@ -4504,10 +4499,10 @@
         <v>9</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L72" s="2"/>
       <c r="O72" s="2"/>
@@ -4528,20 +4523,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H73" s="2">
         <v>69</v>
@@ -4550,14 +4545,14 @@
         <v>69</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="S73" s="2" t="s">
@@ -4567,10 +4562,10 @@
         <v>5</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -4578,28 +4573,28 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>5</v>
@@ -4608,7 +4603,7 @@
         <v>5</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="S74" s="2"/>
@@ -4623,20 +4618,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H75" s="2">
         <v>53</v>
@@ -4645,10 +4640,10 @@
         <v>53</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L75" s="2"/>
       <c r="O75" s="2"/>
@@ -4667,30 +4662,30 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H76" s="2">
         <v>30</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" t="s">
@@ -4712,20 +4707,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H77" s="2">
         <v>56</v>
@@ -4734,10 +4729,10 @@
         <v>56</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L77" s="2"/>
       <c r="O77" s="2"/>
@@ -4749,7 +4744,7 @@
         <v>5</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V77" s="2"/>
     </row>
@@ -4758,28 +4753,28 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>5</v>
@@ -4801,10 +4796,10 @@
         <v>5</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -4812,28 +4807,28 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L79" s="2"/>
       <c r="O79" s="2"/>
@@ -4843,7 +4838,7 @@
       </c>
       <c r="T79" s="2"/>
       <c r="U79" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V79" s="2"/>
     </row>
@@ -4852,28 +4847,28 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L80" s="2"/>
       <c r="O80" s="2"/>
@@ -4886,7 +4881,7 @@
       </c>
       <c r="U80" s="2"/>
       <c r="V80" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -4894,20 +4889,20 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H81" s="2">
         <v>59</v>
@@ -4916,10 +4911,10 @@
         <v>59</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L81" s="2"/>
       <c r="O81" s="2"/>
@@ -4936,30 +4931,30 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L82" s="2"/>
       <c r="O82" s="2"/>

--- a/NTDS_Nijmegen.xlsx
+++ b/NTDS_Nijmegen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="615" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="3015" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -1260,8 +1260,8 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:W82"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1928,12 +1928,7 @@
       <c r="K14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="L14" s="5"/>
       <c r="O14" s="4" t="s">
         <v>28</v>
       </c>
@@ -2155,10 +2150,10 @@
         <v>17</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L19" s="4"/>
       <c r="O19" s="4" t="s">
@@ -2791,10 +2786,10 @@
         <v>23</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L33" s="4"/>
       <c r="O33" s="4" t="s">
@@ -3191,8 +3186,12 @@
       <c r="E42" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="F42" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="5" t="s">
@@ -3201,7 +3200,12 @@
       <c r="K42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L42" s="4"/>
+      <c r="L42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="N42" s="2" t="s">
         <v>29</v>
       </c>
@@ -4588,10 +4592,10 @@
         <v>9</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L72" s="4"/>
       <c r="O72" s="4" t="s">
@@ -4881,12 +4885,7 @@
         <v>28</v>
       </c>
       <c r="Q78" s="4"/>
-      <c r="S78" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S78" s="5"/>
       <c r="U78" s="4" t="s">
         <v>29</v>
       </c>
@@ -5733,7 +5732,7 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="str">
-        <f t="shared" ref="A194:A225" si="6">IF(B194&lt;&gt;"",ROW(A194)-1,"")</f>
+        <f t="shared" ref="A194:A201" si="6">IF(B194&lt;&gt;"",ROW(A194)-1,"")</f>
         <v/>
       </c>
     </row>
